--- a/uploads/expenses.xlsx
+++ b/uploads/expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB06A444-600D-44ED-8A27-D4DF4792DFB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FFA0F9-85A2-4D9D-9F14-0BA7D51CE6EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>Particulars</t>
   </si>
@@ -284,8 +284,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
@@ -572,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -588,8 +589,8 @@
       <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
+      <c r="E1" s="1">
+        <v>45383</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/uploads/expenses.xlsx
+++ b/uploads/expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FFA0F9-85A2-4D9D-9F14-0BA7D51CE6EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A869B12-3D91-40F7-8872-3B35A3747911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>Particulars</t>
-  </si>
-  <si>
-    <t>Apr</t>
   </si>
   <si>
     <t>Manufacturing Expenses</t>
@@ -573,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -583,145 +580,145 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1">
+        <v>45413</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1">
-        <v>45383</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>243557</v>
+        <v>259749</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>3196003</v>
+        <v>3429675</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>655130</v>
+        <v>629629</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>5545</v>
+        <v>7010</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>3594644</v>
+        <v>4168133</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>125000</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>878365</v>
+        <v>744437</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>3594644</v>
+        <v>4168133</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>377409</v>
+        <v>204625</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>21819.379999999997</v>
+        <v>100781.58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>105669</v>
+        <v>51596</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8">
-        <v>545078</v>
+        <v>532255</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>33208</v>
+        <v>22550</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>21819.379999999997</v>
+        <v>100781.58</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10">
-        <v>105669</v>
+        <v>51596</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>70514</v>
+        <v>23836</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>471373</v>
@@ -729,145 +726,139 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13">
-        <v>78359</v>
+        <v>30846</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>2300</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>7004611.3799999999</v>
+        <v>7215974.5800000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>545078</v>
+        <v>532255</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15">
-        <v>7966.74</v>
+        <v>3610.26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>44409</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16">
-        <v>148268.9</v>
+        <v>172490.69</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>471373</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17">
-        <v>-24588.34</v>
+        <v>399870</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>33208</v>
+        <v>22550</v>
       </c>
       <c r="E18">
-        <v>131647.29999999999</v>
+        <v>575970.94999999995</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>333000</v>
+        <v>204625</v>
       </c>
       <c r="E19">
-        <v>7136258.6799999997</v>
+        <v>7791945.5300000003</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>8548562.379999999</v>
+        <v>9136834.5800000001</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22">
-        <v>456801</v>
+        <v>863710</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>4143559</v>
+        <v>4227041</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23">
-        <v>437150</v>
+        <v>407150</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>525000</v>
@@ -875,13 +866,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>685359</v>
+        <v>616661</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>125000</v>
@@ -889,220 +880,220 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>3594644</v>
+        <v>4168133</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26">
-        <v>390249.82999999996</v>
+        <v>368463.4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>8423562</v>
+        <v>9011835</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27">
-        <v>8983.02</v>
+        <v>50771.509999999995</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>125000</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>12366</v>
+        <v>10384</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>8548562</v>
+        <v>9136835</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29">
-        <v>224333</v>
+        <v>224226</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>4280003</v>
+        <v>4784794</v>
       </c>
       <c r="E30">
-        <v>2179882.85</v>
+        <v>2574704.9099999997</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31">
-        <v>9316141.5299999993</v>
+        <v>10366650.439999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>6664.2</v>
+        <v>8271.5</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32">
-        <v>9316141</v>
+        <v>10366651</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>45580.5</v>
+        <v>52769.8</v>
       </c>
       <c r="E33">
-        <v>0.52999999932944775</v>
+        <v>-0.56000000052154064</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>64912</v>
+        <v>63524</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34">
-        <v>1880488</v>
+        <v>2278088</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>767579</v>
+        <v>1229816</v>
       </c>
       <c r="E35">
-        <v>3196003</v>
+        <v>3429675</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36">
-        <v>9316141</v>
+        <v>10366651</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37">
-        <v>8548562.379999999</v>
+        <v>9136834.5800000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38">
-        <v>8548562.3800000008</v>
+        <v>9136834.5800000001</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E38">
-        <v>767579.14999999991</v>
+        <v>1229815.8599999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E39">
-        <v>9316141.5299999993</v>
+        <v>10366650.439999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40">
-        <v>8548562.379999999</v>
+        <v>9136834.5800000001</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41">
-        <v>767579.14999999991</v>
+        <v>1229815.8599999999</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E42">
-        <v>9316141.5299999993</v>
+        <v>10366650.439999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44">
-        <v>2549759.6799999997</v>
+        <v>2641134.5300000003</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45">
-        <v>4493331</v>
+        <v>5057511</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46">
-        <v>93168</v>
+        <v>93300</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47">
-        <v>2054882.85</v>
+        <v>2449704.9099999997</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48">
         <v>125000</v>
@@ -1110,7 +1101,7 @@
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49">
-        <v>9316141.5299999993</v>
+        <v>10366650.439999999</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/expenses.xlsx
+++ b/uploads/expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A869B12-3D91-40F7-8872-3B35A3747911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6B0A42-7D5E-4844-8164-02FCD07CD186}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="10119" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>Particulars</t>
   </si>
@@ -223,6 +223,21 @@
   </si>
   <si>
     <t>Fixed Cost</t>
+  </si>
+  <si>
+    <t>Conveyance Charges</t>
+  </si>
+  <si>
+    <t>SALARY &amp; WAGES</t>
+  </si>
+  <si>
+    <t>Commission on sales</t>
+  </si>
+  <si>
+    <t>TRAVELLING CHARGES</t>
+  </si>
+  <si>
+    <t>(Trading PL)</t>
   </si>
 </sst>
 </file>
@@ -568,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E49"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -581,13 +596,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>45413</v>
+        <v>45658</v>
       </c>
       <c r="D1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="1">
-        <v>45413</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -601,7 +616,7 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>259749</v>
+        <v>261259</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -609,13 +624,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3429675</v>
+        <v>3119379</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
       <c r="E3">
-        <v>629629</v>
+        <v>607103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -623,13 +638,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>7010</v>
+        <v>4970</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
       <c r="E4">
-        <v>4168133</v>
+        <v>6280941.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -643,7 +658,7 @@
         <v>38</v>
       </c>
       <c r="E5">
-        <v>744437</v>
+        <v>761934</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -651,13 +666,13 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4168133</v>
+        <v>6280941.5</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
       </c>
       <c r="E6">
-        <v>204625</v>
+        <v>452225.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -668,7 +683,7 @@
         <v>40</v>
       </c>
       <c r="E7">
-        <v>100781.58</v>
+        <v>80099.679999999993</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -676,13 +691,13 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>51596</v>
+        <v>37866</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
       <c r="E8">
-        <v>532255</v>
+        <v>693944</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -693,7 +708,7 @@
         <v>42</v>
       </c>
       <c r="E9">
-        <v>22550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -701,27 +716,24 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>100781.58</v>
+        <v>80099.679999999993</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="E10">
-        <v>51596</v>
+        <v>37866</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>23836</v>
-      </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11">
-        <v>471373</v>
+        <v>478873</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -740,7 +752,7 @@
         <v>45</v>
       </c>
       <c r="E13">
-        <v>30846</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -748,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <v>7215974.5800000001</v>
+        <v>9659215.6799999997</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -756,13 +768,13 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>532255</v>
+        <v>693944</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
       </c>
       <c r="E15">
-        <v>3610.26</v>
+        <v>10643.6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -773,7 +785,7 @@
         <v>47</v>
       </c>
       <c r="E16">
-        <v>172490.69</v>
+        <v>193459.81</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -781,24 +793,21 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>471373</v>
+        <v>478873</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
       </c>
       <c r="E17">
-        <v>399870</v>
+        <v>524196</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>22550</v>
-      </c>
       <c r="E18">
-        <v>575970.94999999995</v>
+        <v>728299.41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -806,10 +815,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>204625</v>
+        <v>452225.5</v>
       </c>
       <c r="E19">
-        <v>7791945.5300000003</v>
+        <v>10387515.09</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -822,7 +831,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9136834.5800000001</v>
+        <v>11273298.68</v>
       </c>
       <c r="D21" t="s">
         <v>49</v>
@@ -833,7 +842,7 @@
         <v>50</v>
       </c>
       <c r="E22">
-        <v>863710</v>
+        <v>608383</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -841,13 +850,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4227041</v>
+        <v>4150113</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
       </c>
       <c r="E23">
-        <v>407150</v>
+        <v>355700</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -869,7 +878,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>616661</v>
+        <v>717244</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -883,13 +892,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4168133</v>
+        <v>6280942</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
       </c>
       <c r="E26">
-        <v>368463.4</v>
+        <v>532489.14</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -897,13 +906,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>9011835</v>
+        <v>11148299</v>
       </c>
       <c r="D27" t="s">
         <v>54</v>
       </c>
       <c r="E27">
-        <v>50771.509999999995</v>
+        <v>53840.53</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -917,7 +926,7 @@
         <v>55</v>
       </c>
       <c r="E28">
-        <v>10384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -925,13 +934,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9136835</v>
+        <v>11273299</v>
       </c>
       <c r="D29" t="s">
         <v>56</v>
       </c>
       <c r="E29">
-        <v>224226</v>
+        <v>216333</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -939,10 +948,10 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <v>4784794</v>
+        <v>6998186</v>
       </c>
       <c r="E30">
-        <v>2574704.9099999997</v>
+        <v>2416745.67</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -950,7 +959,7 @@
         <v>32</v>
       </c>
       <c r="E31">
-        <v>10366650.439999999</v>
+        <v>12804260.76</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -958,13 +967,13 @@
         <v>28</v>
       </c>
       <c r="B32">
-        <v>8271.5</v>
+        <v>9344.7000000000007</v>
       </c>
       <c r="D32" t="s">
         <v>57</v>
       </c>
       <c r="E32">
-        <v>10366651</v>
+        <v>12804261</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -972,10 +981,10 @@
         <v>29</v>
       </c>
       <c r="B33">
-        <v>52769.8</v>
+        <v>74639.199999999997</v>
       </c>
       <c r="E33">
-        <v>-0.56000000052154064</v>
+        <v>-0.24000000022351742</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -983,13 +992,13 @@
         <v>30</v>
       </c>
       <c r="B34">
-        <v>63524</v>
+        <v>79408</v>
       </c>
       <c r="D34" t="s">
         <v>58</v>
       </c>
       <c r="E34">
-        <v>2278088</v>
+        <v>1832445</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -997,10 +1006,10 @@
         <v>31</v>
       </c>
       <c r="B35">
-        <v>1229816</v>
+        <v>11352707</v>
       </c>
       <c r="E35">
-        <v>3429675</v>
+        <v>3119379</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1008,7 +1017,7 @@
         <v>32</v>
       </c>
       <c r="B36">
-        <v>10366651</v>
+        <v>22626006</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1016,7 +1025,7 @@
         <v>59</v>
       </c>
       <c r="E37">
-        <v>9136834.5800000001</v>
+        <v>11273298.68</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1024,18 +1033,18 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>9136834.5800000001</v>
+        <v>11273298.68</v>
       </c>
       <c r="D38" t="s">
         <v>60</v>
       </c>
       <c r="E38">
-        <v>1229815.8599999999</v>
+        <v>1530962.08</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E39">
-        <v>10366650.439999999</v>
+        <v>12804260.76</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1043,7 +1052,7 @@
         <v>61</v>
       </c>
       <c r="E40">
-        <v>9136834.5800000001</v>
+        <v>11273298.68</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1051,12 +1060,12 @@
         <v>31</v>
       </c>
       <c r="E41">
-        <v>1229815.8599999999</v>
+        <v>1530962.08</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E42">
-        <v>10366650.439999999</v>
+        <v>12804260.76</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1064,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="E44">
-        <v>2641134.5300000003</v>
+        <v>3140779.59</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1072,7 +1081,7 @@
         <v>63</v>
       </c>
       <c r="E45">
-        <v>5057511</v>
+        <v>7149303.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1080,7 +1089,7 @@
         <v>64</v>
       </c>
       <c r="E46">
-        <v>93300</v>
+        <v>97432</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1088,7 +1097,7 @@
         <v>65</v>
       </c>
       <c r="E47">
-        <v>2449704.9099999997</v>
+        <v>2291745.67</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1099,12 +1108,42 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E49">
-        <v>10366650.439999999</v>
+        <v>12804260.76</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>